--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.968589851248125</v>
+        <v>-1.500300839703562</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.730338809442497</v>
+        <v>-5.070653324627003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.645106236849326</v>
+        <v>-8.374223760275951</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.774520133977851</v>
+        <v>5.796833043372965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9617989300239297</v>
+        <v>1.540810983453659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.801118809351899</v>
+        <v>-2.680676484074425</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2003289693344998</v>
+        <v>-0.1699440063782061</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.548680158291184</v>
+        <v>-0.5363281875233303</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8586622156837126</v>
+        <v>-0.8441870099473572</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9263654563134931</v>
+        <v>0.9255190370877506</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1918339344918809</v>
+        <v>0.2585753666576862</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4031298304855588</v>
+        <v>-0.3530256917098594</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.218726115621429</v>
+        <v>-1.430407863487667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.503282819234331</v>
+        <v>-5.083412786189802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.89890698859679</v>
+        <v>-7.936278848934696</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.038276428687174</v>
+        <v>4.827898189325305</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.029973626159605</v>
+        <v>0.7135638808449941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.076248277052281</v>
+        <v>-3.120190645473042</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1561909865605861</v>
+        <v>-0.1518820798711613</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4843308208870634</v>
+        <v>-0.5221462620763168</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8532939435523403</v>
+        <v>-0.8508269653318524</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7776844356085971</v>
+        <v>0.7878970025327188</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1716555800459887</v>
+        <v>0.1207412965321256</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4657258604449216</v>
+        <v>-0.448492660830918</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.907834820253584</v>
+        <v>-4.440544420070733</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.335968899207364</v>
+        <v>-6.445321605259964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.686875732674126</v>
+        <v>-8.763716214902336</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.616626186838785</v>
+        <v>2.318786607490806</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1471957917094144</v>
+        <v>0.3003008853165071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.95106417570608</v>
+        <v>-2.361412408553623</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4088059578050447</v>
+        <v>-0.3946931403701349</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5528192057828986</v>
+        <v>-0.5606263747098517</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7521089350392983</v>
+        <v>-0.767063900764135</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3658607112894921</v>
+        <v>0.3065835923092795</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02441235453031016</v>
+        <v>0.0560839810620403</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2150681505498933</v>
+        <v>-0.2713184119629498</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.235694611910905</v>
+        <v>-3.452258528254923</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.440201248359935</v>
+        <v>-6.604512455383856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.27578727374859</v>
+        <v>-10.21516730479967</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.339855175689469</v>
+        <v>3.188714116845809</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5150201872805961</v>
+        <v>-0.4582102591943449</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.920703254217369</v>
+        <v>-4.896382921678197</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.265418780606293</v>
+        <v>-0.2979376926878171</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.532256452828065</v>
+        <v>-0.5385383865124876</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8355116185179746</v>
+        <v>-0.8406010857609486</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3707433299302098</v>
+        <v>0.3612267116063448</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04713162633150002</v>
+        <v>-0.03008460707289246</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5362554200282638</v>
+        <v>-0.5486200271268177</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.017159365533262</v>
+        <v>-1.037109172338638</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.158231583995972</v>
+        <v>-4.129470455736514</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.414087252711949</v>
+        <v>-7.377200410578608</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.349754135975976</v>
+        <v>2.456755543258036</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.142969059271644</v>
+        <v>-1.016732159993321</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.608377174309013</v>
+        <v>-4.525295368502923</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1037561511392146</v>
+        <v>-0.1049629658634036</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.425595342807395</v>
+        <v>-0.419461477967645</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7572192246445223</v>
+        <v>-0.7587500531729666</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2881092022093455</v>
+        <v>0.3091094087721476</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1358626663834204</v>
+        <v>-0.1342216980710885</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5700413866968829</v>
+        <v>-0.5621550864729769</v>
       </c>
     </row>
     <row r="34">
